--- a/page/eb11/t01/eb11-t01.xlsx
+++ b/page/eb11/t01/eb11-t01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LIB-DSC-FS\Peter Logan\eb-corpus\production\eb11\t01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278DDAB-EF1A-420A-B8EB-0F5CDF9E1E3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046BCE64-D1F9-4DCB-ACF7-0D1825DD1519}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4530" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="5205" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s05" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="533">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -874,6 +874,756 @@
   </si>
   <si>
     <t>equation</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>eb11-t01-0001</t>
+  </si>
+  <si>
+    <t>eb11-t01-0002</t>
+  </si>
+  <si>
+    <t>eb11-t01-0003</t>
+  </si>
+  <si>
+    <t>eb11-t01-0004</t>
+  </si>
+  <si>
+    <t>eb11-t01-0005</t>
+  </si>
+  <si>
+    <t>eb11-t01-0006</t>
+  </si>
+  <si>
+    <t>eb11-t01-0007</t>
+  </si>
+  <si>
+    <t>eb11-t01-0008</t>
+  </si>
+  <si>
+    <t>eb11-t01-0009</t>
+  </si>
+  <si>
+    <t>eb11-t01-0010</t>
+  </si>
+  <si>
+    <t>eb11-t01-0011</t>
+  </si>
+  <si>
+    <t>eb11-t01-0012</t>
+  </si>
+  <si>
+    <t>eb11-t01-0013</t>
+  </si>
+  <si>
+    <t>eb11-t01-0014</t>
+  </si>
+  <si>
+    <t>eb11-t01-0015</t>
+  </si>
+  <si>
+    <t>eb11-t01-0016</t>
+  </si>
+  <si>
+    <t>eb11-t01-0017</t>
+  </si>
+  <si>
+    <t>eb11-t01-0018</t>
+  </si>
+  <si>
+    <t>eb11-t01-0019</t>
+  </si>
+  <si>
+    <t>eb11-t01-0020</t>
+  </si>
+  <si>
+    <t>eb11-t01-0021</t>
+  </si>
+  <si>
+    <t>eb11-t01-0022</t>
+  </si>
+  <si>
+    <t>eb11-t01-0023</t>
+  </si>
+  <si>
+    <t>eb11-t01-0024</t>
+  </si>
+  <si>
+    <t>eb11-t01-0025</t>
+  </si>
+  <si>
+    <t>eb11-t01-0026</t>
+  </si>
+  <si>
+    <t>eb11-t01-0027</t>
+  </si>
+  <si>
+    <t>eb11-t01-0028</t>
+  </si>
+  <si>
+    <t>eb11-t01-0029</t>
+  </si>
+  <si>
+    <t>eb11-t01-0030</t>
+  </si>
+  <si>
+    <t>eb11-t01-0031</t>
+  </si>
+  <si>
+    <t>eb11-t01-0032</t>
+  </si>
+  <si>
+    <t>eb11-t01-0033</t>
+  </si>
+  <si>
+    <t>eb11-t01-0034</t>
+  </si>
+  <si>
+    <t>eb11-t01-0035</t>
+  </si>
+  <si>
+    <t>eb11-t01-0036</t>
+  </si>
+  <si>
+    <t>eb11-t01-0037</t>
+  </si>
+  <si>
+    <t>eb11-t01-0038</t>
+  </si>
+  <si>
+    <t>eb11-t01-0039</t>
+  </si>
+  <si>
+    <t>eb11-t01-0040</t>
+  </si>
+  <si>
+    <t>eb11-t01-0041</t>
+  </si>
+  <si>
+    <t>eb11-t01-0042</t>
+  </si>
+  <si>
+    <t>eb11-t01-0043</t>
+  </si>
+  <si>
+    <t>eb11-t01-0044</t>
+  </si>
+  <si>
+    <t>eb11-t01-0045</t>
+  </si>
+  <si>
+    <t>eb11-t01-0046</t>
+  </si>
+  <si>
+    <t>eb11-t01-0047</t>
+  </si>
+  <si>
+    <t>eb11-t01-0048</t>
+  </si>
+  <si>
+    <t>eb11-t01-0049</t>
+  </si>
+  <si>
+    <t>eb11-t01-0050</t>
+  </si>
+  <si>
+    <t>eb11-t01-0051</t>
+  </si>
+  <si>
+    <t>eb11-t01-0052</t>
+  </si>
+  <si>
+    <t>eb11-t01-0053</t>
+  </si>
+  <si>
+    <t>eb11-t01-0054</t>
+  </si>
+  <si>
+    <t>eb11-t01-0055</t>
+  </si>
+  <si>
+    <t>eb11-t01-0056</t>
+  </si>
+  <si>
+    <t>eb11-t01-0057</t>
+  </si>
+  <si>
+    <t>eb11-t01-0058</t>
+  </si>
+  <si>
+    <t>eb11-t01-0059</t>
+  </si>
+  <si>
+    <t>eb11-t01-0060</t>
+  </si>
+  <si>
+    <t>eb11-t01-0061</t>
+  </si>
+  <si>
+    <t>eb11-t01-0062</t>
+  </si>
+  <si>
+    <t>eb11-t01-0063</t>
+  </si>
+  <si>
+    <t>eb11-t01-0064</t>
+  </si>
+  <si>
+    <t>eb11-t01-0065</t>
+  </si>
+  <si>
+    <t>eb11-t01-0066</t>
+  </si>
+  <si>
+    <t>eb11-t01-0067</t>
+  </si>
+  <si>
+    <t>eb11-t01-0068</t>
+  </si>
+  <si>
+    <t>eb11-t01-0069</t>
+  </si>
+  <si>
+    <t>eb11-t01-0070</t>
+  </si>
+  <si>
+    <t>eb11-t01-0071</t>
+  </si>
+  <si>
+    <t>eb11-t01-0072</t>
+  </si>
+  <si>
+    <t>eb11-t01-0073</t>
+  </si>
+  <si>
+    <t>eb11-t01-0074</t>
+  </si>
+  <si>
+    <t>eb11-t01-0075</t>
+  </si>
+  <si>
+    <t>eb11-t01-0076</t>
+  </si>
+  <si>
+    <t>eb11-t01-0077</t>
+  </si>
+  <si>
+    <t>eb11-t01-0078</t>
+  </si>
+  <si>
+    <t>eb11-t01-0079</t>
+  </si>
+  <si>
+    <t>eb11-t01-0080</t>
+  </si>
+  <si>
+    <t>eb11-t01-0081</t>
+  </si>
+  <si>
+    <t>eb11-t01-0082</t>
+  </si>
+  <si>
+    <t>eb11-t01-0083</t>
+  </si>
+  <si>
+    <t>eb11-t01-0084</t>
+  </si>
+  <si>
+    <t>eb11-t01-0085</t>
+  </si>
+  <si>
+    <t>eb11-t01-0086</t>
+  </si>
+  <si>
+    <t>eb11-t01-0087</t>
+  </si>
+  <si>
+    <t>eb11-t01-0088</t>
+  </si>
+  <si>
+    <t>eb11-t01-0089</t>
+  </si>
+  <si>
+    <t>eb11-t01-0090</t>
+  </si>
+  <si>
+    <t>eb11-t01-0091</t>
+  </si>
+  <si>
+    <t>eb11-t01-0092</t>
+  </si>
+  <si>
+    <t>eb11-t01-0093</t>
+  </si>
+  <si>
+    <t>eb11-t01-0094</t>
+  </si>
+  <si>
+    <t>eb11-t01-0095</t>
+  </si>
+  <si>
+    <t>eb11-t01-0096</t>
+  </si>
+  <si>
+    <t>eb11-t01-0097</t>
+  </si>
+  <si>
+    <t>eb11-t01-0098</t>
+  </si>
+  <si>
+    <t>eb11-t01-0099</t>
+  </si>
+  <si>
+    <t>eb11-t01-0100</t>
+  </si>
+  <si>
+    <t>eb11-t01-0101</t>
+  </si>
+  <si>
+    <t>eb11-t01-0102</t>
+  </si>
+  <si>
+    <t>eb11-t01-0103</t>
+  </si>
+  <si>
+    <t>eb11-t01-0104</t>
+  </si>
+  <si>
+    <t>eb11-t01-0105</t>
+  </si>
+  <si>
+    <t>eb11-t01-0106</t>
+  </si>
+  <si>
+    <t>eb11-t01-0107</t>
+  </si>
+  <si>
+    <t>eb11-t01-0108</t>
+  </si>
+  <si>
+    <t>eb11-t01-0109</t>
+  </si>
+  <si>
+    <t>eb11-t01-0110</t>
+  </si>
+  <si>
+    <t>eb11-t01-0111</t>
+  </si>
+  <si>
+    <t>eb11-t01-0112</t>
+  </si>
+  <si>
+    <t>eb11-t01-0113</t>
+  </si>
+  <si>
+    <t>eb11-t01-0114</t>
+  </si>
+  <si>
+    <t>eb11-t01-0115</t>
+  </si>
+  <si>
+    <t>eb11-t01-0116</t>
+  </si>
+  <si>
+    <t>eb11-t01-0117</t>
+  </si>
+  <si>
+    <t>eb11-t01-0118</t>
+  </si>
+  <si>
+    <t>eb11-t01-0119</t>
+  </si>
+  <si>
+    <t>eb11-t01-0120</t>
+  </si>
+  <si>
+    <t>eb11-t01-0121</t>
+  </si>
+  <si>
+    <t>eb11-t01-0122</t>
+  </si>
+  <si>
+    <t>eb11-t01-0123</t>
+  </si>
+  <si>
+    <t>eb11-t01-0124</t>
+  </si>
+  <si>
+    <t>eb11-t01-0125</t>
+  </si>
+  <si>
+    <t>eb11-t01-0126</t>
+  </si>
+  <si>
+    <t>eb11-t01-0127</t>
+  </si>
+  <si>
+    <t>eb11-t01-0128</t>
+  </si>
+  <si>
+    <t>eb11-t01-0129</t>
+  </si>
+  <si>
+    <t>eb11-t01-0130</t>
+  </si>
+  <si>
+    <t>eb11-t01-0131</t>
+  </si>
+  <si>
+    <t>eb11-t01-0132</t>
+  </si>
+  <si>
+    <t>eb11-t01-0133</t>
+  </si>
+  <si>
+    <t>eb11-t01-0134</t>
+  </si>
+  <si>
+    <t>eb11-t01-0135</t>
+  </si>
+  <si>
+    <t>eb11-t01-0136</t>
+  </si>
+  <si>
+    <t>eb11-t01-0137</t>
+  </si>
+  <si>
+    <t>eb11-t01-0138</t>
+  </si>
+  <si>
+    <t>eb11-t01-0139</t>
+  </si>
+  <si>
+    <t>eb11-t01-0140</t>
+  </si>
+  <si>
+    <t>eb11-t01-0141</t>
+  </si>
+  <si>
+    <t>eb11-t01-0142</t>
+  </si>
+  <si>
+    <t>eb11-t01-0143</t>
+  </si>
+  <si>
+    <t>eb11-t01-0144</t>
+  </si>
+  <si>
+    <t>eb11-t01-0145</t>
+  </si>
+  <si>
+    <t>eb11-t01-0146</t>
+  </si>
+  <si>
+    <t>eb11-t01-0147</t>
+  </si>
+  <si>
+    <t>eb11-t01-0148</t>
+  </si>
+  <si>
+    <t>eb11-t01-0149</t>
+  </si>
+  <si>
+    <t>eb11-t01-0150</t>
+  </si>
+  <si>
+    <t>eb11-t01-0151</t>
+  </si>
+  <si>
+    <t>eb11-t01-0152</t>
+  </si>
+  <si>
+    <t>eb11-t01-0153</t>
+  </si>
+  <si>
+    <t>eb11-t01-0154</t>
+  </si>
+  <si>
+    <t>eb11-t01-0155</t>
+  </si>
+  <si>
+    <t>eb11-t01-0156</t>
+  </si>
+  <si>
+    <t>eb11-t01-0157</t>
+  </si>
+  <si>
+    <t>eb11-t01-0158</t>
+  </si>
+  <si>
+    <t>eb11-t01-0159</t>
+  </si>
+  <si>
+    <t>eb11-t01-0160</t>
+  </si>
+  <si>
+    <t>eb11-t01-0161</t>
+  </si>
+  <si>
+    <t>eb11-t01-0162</t>
+  </si>
+  <si>
+    <t>eb11-t01-0163</t>
+  </si>
+  <si>
+    <t>eb11-t01-0164</t>
+  </si>
+  <si>
+    <t>eb11-t01-0165</t>
+  </si>
+  <si>
+    <t>eb11-t01-0166</t>
+  </si>
+  <si>
+    <t>eb11-t01-0167</t>
+  </si>
+  <si>
+    <t>eb11-t01-0168</t>
+  </si>
+  <si>
+    <t>eb11-t01-0169</t>
+  </si>
+  <si>
+    <t>eb11-t01-0170</t>
+  </si>
+  <si>
+    <t>eb11-t01-0171</t>
+  </si>
+  <si>
+    <t>eb11-t01-0172</t>
+  </si>
+  <si>
+    <t>eb11-t01-0173</t>
+  </si>
+  <si>
+    <t>eb11-t01-0174</t>
+  </si>
+  <si>
+    <t>eb11-t01-0175</t>
+  </si>
+  <si>
+    <t>eb11-t01-0176</t>
+  </si>
+  <si>
+    <t>eb11-t01-0177</t>
+  </si>
+  <si>
+    <t>eb11-t01-0178</t>
+  </si>
+  <si>
+    <t>eb11-t01-0179</t>
+  </si>
+  <si>
+    <t>eb11-t01-0180</t>
+  </si>
+  <si>
+    <t>eb11-t01-0181</t>
+  </si>
+  <si>
+    <t>eb11-t01-0182</t>
+  </si>
+  <si>
+    <t>eb11-t01-0183</t>
+  </si>
+  <si>
+    <t>eb11-t01-0184</t>
+  </si>
+  <si>
+    <t>eb11-t01-0185</t>
+  </si>
+  <si>
+    <t>eb11-t01-0186</t>
+  </si>
+  <si>
+    <t>eb11-t01-0187</t>
+  </si>
+  <si>
+    <t>eb11-t01-0188</t>
+  </si>
+  <si>
+    <t>eb11-t01-0189</t>
+  </si>
+  <si>
+    <t>eb11-t01-0190</t>
+  </si>
+  <si>
+    <t>eb11-t01-0191</t>
+  </si>
+  <si>
+    <t>eb11-t01-0192</t>
+  </si>
+  <si>
+    <t>eb11-t01-0193</t>
+  </si>
+  <si>
+    <t>eb11-t01-0194</t>
+  </si>
+  <si>
+    <t>eb11-t01-0195</t>
+  </si>
+  <si>
+    <t>eb11-t01-0196</t>
+  </si>
+  <si>
+    <t>eb11-t01-0197</t>
+  </si>
+  <si>
+    <t>eb11-t01-0198</t>
+  </si>
+  <si>
+    <t>eb11-t01-0199</t>
+  </si>
+  <si>
+    <t>eb11-t01-0200</t>
+  </si>
+  <si>
+    <t>eb11-t01-0201</t>
+  </si>
+  <si>
+    <t>eb11-t01-0202</t>
+  </si>
+  <si>
+    <t>eb11-t01-0203</t>
+  </si>
+  <si>
+    <t>eb11-t01-0204</t>
+  </si>
+  <si>
+    <t>eb11-t01-0205</t>
+  </si>
+  <si>
+    <t>eb11-t01-0206</t>
+  </si>
+  <si>
+    <t>eb11-t01-0207</t>
+  </si>
+  <si>
+    <t>eb11-t01-0208</t>
+  </si>
+  <si>
+    <t>eb11-t01-0209</t>
+  </si>
+  <si>
+    <t>eb11-t01-0210</t>
+  </si>
+  <si>
+    <t>eb11-t01-0211</t>
+  </si>
+  <si>
+    <t>eb11-t01-0212</t>
+  </si>
+  <si>
+    <t>eb11-t01-0213</t>
+  </si>
+  <si>
+    <t>eb11-t01-0214</t>
+  </si>
+  <si>
+    <t>eb11-t01-0215</t>
+  </si>
+  <si>
+    <t>eb11-t01-0216</t>
+  </si>
+  <si>
+    <t>eb11-t01-0217</t>
+  </si>
+  <si>
+    <t>eb11-t01-0218</t>
+  </si>
+  <si>
+    <t>eb11-t01-0219</t>
+  </si>
+  <si>
+    <t>eb11-t01-0220</t>
+  </si>
+  <si>
+    <t>eb11-t01-0221</t>
+  </si>
+  <si>
+    <t>eb11-t01-0222</t>
+  </si>
+  <si>
+    <t>eb11-t01-0223</t>
+  </si>
+  <si>
+    <t>eb11-t01-0224</t>
+  </si>
+  <si>
+    <t>eb11-t01-0225</t>
+  </si>
+  <si>
+    <t>eb11-t01-0226</t>
+  </si>
+  <si>
+    <t>eb11-t01-0227</t>
+  </si>
+  <si>
+    <t>eb11-t01-0228</t>
+  </si>
+  <si>
+    <t>eb11-t01-0229</t>
+  </si>
+  <si>
+    <t>eb11-t01-0230</t>
+  </si>
+  <si>
+    <t>eb11-t01-0231</t>
+  </si>
+  <si>
+    <t>eb11-t01-0232</t>
+  </si>
+  <si>
+    <t>eb11-t01-0233</t>
+  </si>
+  <si>
+    <t>eb11-t01-0234</t>
+  </si>
+  <si>
+    <t>eb11-t01-0235</t>
+  </si>
+  <si>
+    <t>eb11-t01-0236</t>
+  </si>
+  <si>
+    <t>eb11-t01-0237</t>
+  </si>
+  <si>
+    <t>eb11-t01-0238</t>
+  </si>
+  <si>
+    <t>eb11-t01-0239</t>
+  </si>
+  <si>
+    <t>eb11-t01-0240</t>
+  </si>
+  <si>
+    <t>eb11-t01-0241</t>
+  </si>
+  <si>
+    <t>eb11-t01-0242</t>
+  </si>
+  <si>
+    <t>eb11-t01-0243</t>
+  </si>
+  <si>
+    <t>eb11-t01-0244</t>
+  </si>
+  <si>
+    <t>eb11-t01-0245</t>
+  </si>
+  <si>
+    <t>eb11-t01-0246</t>
+  </si>
+  <si>
+    <t>eb11-t01-0247</t>
+  </si>
+  <si>
+    <t>eb11-t01-0248</t>
+  </si>
+  <si>
+    <t>eb11-t01-0249</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1999,8 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L203" sqref="L203"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +2064,15 @@
       <c r="D2">
         <v>321</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43598</v>
+      </c>
       <c r="H2" s="11"/>
       <c r="I2" s="13"/>
       <c r="J2" s="5"/>
@@ -1332,7 +2090,9 @@
       <c r="D3">
         <v>322</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
       <c r="J3" s="5"/>
@@ -1350,7 +2110,9 @@
       <c r="D4">
         <v>323</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
       <c r="J4" s="5"/>
@@ -1368,7 +2130,9 @@
       <c r="D5">
         <v>324</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -1387,7 +2151,9 @@
       <c r="D6">
         <v>325</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
@@ -1405,7 +2171,9 @@
       <c r="D7">
         <v>326</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="5"/>
@@ -1423,7 +2191,9 @@
       <c r="D8">
         <v>327</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="5"/>
@@ -1441,7 +2211,9 @@
       <c r="D9">
         <v>328</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="5"/>
@@ -1459,7 +2231,9 @@
       <c r="D10">
         <v>329</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="5"/>
@@ -1477,7 +2251,9 @@
       <c r="D11">
         <v>330</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="5"/>
@@ -1495,7 +2271,9 @@
       <c r="D12">
         <v>331</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="5"/>
@@ -1513,7 +2291,9 @@
       <c r="D13">
         <v>332</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
@@ -1531,7 +2311,9 @@
       <c r="D14">
         <v>333</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="5"/>
@@ -1551,7 +2333,9 @@
       <c r="D15">
         <v>334</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="5"/>
@@ -1571,7 +2355,9 @@
       <c r="D16">
         <v>335</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="5"/>
@@ -1591,7 +2377,9 @@
       <c r="D17">
         <v>336</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="5"/>
@@ -1611,7 +2399,9 @@
       <c r="D18">
         <v>337</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="5"/>
@@ -1629,7 +2419,9 @@
       <c r="D19">
         <v>338</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
       <c r="J19" s="5"/>
@@ -1647,7 +2439,9 @@
       <c r="D20">
         <v>339</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
       <c r="J20" s="5"/>
@@ -1665,7 +2459,9 @@
       <c r="D21">
         <v>340</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="13"/>
       <c r="J21" s="5"/>
@@ -1685,7 +2481,9 @@
       <c r="D22">
         <v>341</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="13"/>
       <c r="J22" s="5"/>
@@ -1703,7 +2501,9 @@
       <c r="D23">
         <v>342</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="13"/>
       <c r="J23" s="5"/>
@@ -1723,7 +2523,9 @@
       <c r="D24">
         <v>343</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="13"/>
       <c r="J24" s="5"/>
@@ -1743,7 +2545,9 @@
       <c r="D25">
         <v>344</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="5"/>
@@ -1761,7 +2565,9 @@
       <c r="D26">
         <v>345</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
       <c r="J26" s="5"/>
@@ -1779,7 +2585,9 @@
       <c r="D27">
         <v>346</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="5"/>
@@ -1797,7 +2605,9 @@
       <c r="D28">
         <v>347</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
       <c r="J28" s="5"/>
@@ -1815,7 +2625,9 @@
       <c r="D29">
         <v>348</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="5"/>
@@ -1833,7 +2645,9 @@
       <c r="D30">
         <v>349</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="13"/>
       <c r="J30" s="5"/>
@@ -1851,7 +2665,9 @@
       <c r="D31">
         <v>350</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="13"/>
       <c r="J31" s="5"/>
@@ -1869,7 +2685,9 @@
       <c r="D32">
         <v>351</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="13"/>
       <c r="J32" s="5"/>
@@ -1887,7 +2705,9 @@
       <c r="D33">
         <v>352</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="H33" s="11"/>
       <c r="I33" s="13"/>
       <c r="J33" s="5"/>
@@ -1905,7 +2725,9 @@
       <c r="D34">
         <v>353</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="13"/>
       <c r="J34" s="5"/>
@@ -1923,7 +2745,9 @@
       <c r="D35">
         <v>354</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="13"/>
       <c r="J35" s="5"/>
@@ -1941,7 +2765,9 @@
       <c r="D36">
         <v>355</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="13"/>
       <c r="J36" s="5"/>
@@ -1959,7 +2785,9 @@
       <c r="D37">
         <v>356</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="13"/>
       <c r="J37" s="5"/>
@@ -1977,7 +2805,9 @@
       <c r="D38">
         <v>357</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="13"/>
       <c r="J38" s="5"/>
@@ -1995,7 +2825,9 @@
       <c r="D39">
         <v>358</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="13"/>
       <c r="J39" s="5"/>
@@ -2013,7 +2845,9 @@
       <c r="D40">
         <v>359</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="5"/>
@@ -2031,7 +2865,9 @@
       <c r="D41">
         <v>360</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="13"/>
       <c r="J41" s="5"/>
@@ -2049,7 +2885,9 @@
       <c r="D42">
         <v>361</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
       <c r="J42" s="5"/>
@@ -2067,7 +2905,9 @@
       <c r="D43">
         <v>362</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="H43" s="11"/>
       <c r="I43" s="13"/>
       <c r="J43" s="5"/>
@@ -2085,7 +2925,9 @@
       <c r="D44">
         <v>363</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="13"/>
       <c r="J44" s="5"/>
@@ -2103,7 +2945,9 @@
       <c r="D45">
         <v>364</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="H45" s="11"/>
       <c r="I45" s="13"/>
       <c r="J45" s="5"/>
@@ -2121,7 +2965,9 @@
       <c r="D46">
         <v>365</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="13"/>
       <c r="J46" s="5"/>
@@ -2139,7 +2985,9 @@
       <c r="D47">
         <v>366</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="5"/>
@@ -2157,7 +3005,9 @@
       <c r="D48">
         <v>367</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="13"/>
       <c r="J48" s="5"/>
@@ -2175,7 +3025,9 @@
       <c r="D49">
         <v>368</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
       <c r="J49" s="5"/>
@@ -2193,7 +3045,9 @@
       <c r="D50">
         <v>369</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="5"/>
@@ -2211,7 +3065,9 @@
       <c r="D51">
         <v>370</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="13"/>
       <c r="J51" s="5"/>
@@ -2229,7 +3085,9 @@
       <c r="D52">
         <v>371</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="5"/>
@@ -2247,7 +3105,9 @@
       <c r="D53">
         <v>372</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="H53" s="11"/>
       <c r="I53" s="13"/>
       <c r="J53" s="5"/>
@@ -2265,7 +3125,9 @@
       <c r="D54">
         <v>373</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="H54" s="11"/>
       <c r="I54" s="13"/>
       <c r="J54" s="5"/>
@@ -2283,7 +3145,9 @@
       <c r="D55">
         <v>374</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="H55" s="11"/>
       <c r="I55" s="13"/>
       <c r="J55" s="5"/>
@@ -2301,7 +3165,9 @@
       <c r="D56">
         <v>375</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="13"/>
       <c r="J56" s="5"/>
@@ -2319,7 +3185,9 @@
       <c r="D57">
         <v>376</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="H57" s="11"/>
       <c r="I57" s="13"/>
       <c r="J57" s="5"/>
@@ -2337,7 +3205,9 @@
       <c r="D58">
         <v>377</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="13"/>
       <c r="J58" s="5"/>
@@ -2355,7 +3225,9 @@
       <c r="D59">
         <v>378</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="H59" s="11"/>
       <c r="I59" s="13"/>
       <c r="J59" s="5"/>
@@ -2373,7 +3245,9 @@
       <c r="D60">
         <v>379</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="H60" s="11"/>
       <c r="I60" s="13"/>
       <c r="J60" s="5"/>
@@ -2391,7 +3265,9 @@
       <c r="D61">
         <v>380</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="H61" s="11"/>
       <c r="I61" s="13"/>
       <c r="J61" s="5"/>
@@ -2409,7 +3285,9 @@
       <c r="D62">
         <v>381</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="13"/>
       <c r="J62" s="5"/>
@@ -2429,7 +3307,9 @@
       <c r="D63">
         <v>382</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="13"/>
       <c r="J63" s="5"/>
@@ -2447,7 +3327,9 @@
       <c r="D64">
         <v>383</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="H64" s="11"/>
       <c r="I64" s="13"/>
       <c r="J64" s="5"/>
@@ -2465,7 +3347,9 @@
       <c r="D65">
         <v>384</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="H65" s="11"/>
       <c r="I65" s="13"/>
       <c r="J65" s="5"/>
@@ -2483,7 +3367,9 @@
       <c r="D66">
         <v>385</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="H66" s="11"/>
       <c r="I66" s="13"/>
       <c r="J66" s="5"/>
@@ -2501,7 +3387,9 @@
       <c r="D67">
         <v>386</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="H67" s="11"/>
       <c r="I67" s="13"/>
       <c r="J67" s="5"/>
@@ -2519,7 +3407,9 @@
       <c r="D68">
         <v>387</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="H68" s="11"/>
       <c r="I68" s="13"/>
       <c r="J68" s="5"/>
@@ -2537,7 +3427,9 @@
       <c r="D69">
         <v>388</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -2557,7 +3449,9 @@
       <c r="D70">
         <v>389</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -2577,7 +3471,9 @@
       <c r="D71">
         <v>390</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -2599,7 +3495,9 @@
       <c r="D72">
         <v>391</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -2619,7 +3517,9 @@
       <c r="D73">
         <v>392</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -2639,7 +3539,9 @@
       <c r="D74">
         <v>393</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -2659,7 +3561,9 @@
       <c r="D75">
         <v>394</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -2679,7 +3583,9 @@
       <c r="D76">
         <v>395</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -2699,7 +3605,9 @@
       <c r="D77">
         <v>396</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -2719,7 +3627,9 @@
       <c r="D78">
         <v>397</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -2739,7 +3649,9 @@
       <c r="D79">
         <v>398</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -2759,7 +3671,9 @@
       <c r="D80">
         <v>399</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -2779,7 +3693,9 @@
       <c r="D81">
         <v>400</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -2799,7 +3715,9 @@
       <c r="D82">
         <v>401</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -2819,7 +3737,9 @@
       <c r="D83">
         <v>402</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -2839,7 +3759,9 @@
       <c r="D84">
         <v>403</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -2859,7 +3781,9 @@
       <c r="D85">
         <v>404</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2959,7 +3883,9 @@
       <c r="D90">
         <v>405</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -2979,7 +3905,9 @@
       <c r="D91">
         <v>406</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -3079,7 +4007,9 @@
       <c r="D96">
         <v>407</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -3099,7 +4029,9 @@
       <c r="D97">
         <v>408</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -3119,7 +4051,9 @@
       <c r="D98">
         <v>409</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -3139,7 +4073,9 @@
       <c r="D99">
         <v>410</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -3159,7 +4095,9 @@
       <c r="D100">
         <v>411</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -3179,7 +4117,9 @@
       <c r="D101">
         <v>412</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -3199,7 +4139,9 @@
       <c r="D102">
         <v>413</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -3221,7 +4163,9 @@
       <c r="D103">
         <v>414</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -3241,7 +4185,9 @@
       <c r="D104">
         <v>415</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3261,7 +4207,9 @@
       <c r="D105">
         <v>416</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -3281,7 +4229,9 @@
       <c r="D106">
         <v>417</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -3301,7 +4251,9 @@
       <c r="D107">
         <v>418</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -3321,7 +4273,9 @@
       <c r="D108">
         <v>419</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -3341,7 +4295,9 @@
       <c r="D109">
         <v>420</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -3363,7 +4319,9 @@
       <c r="D110">
         <v>421</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -3385,7 +4343,9 @@
       <c r="D111">
         <v>422</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -3405,7 +4365,9 @@
       <c r="D112">
         <v>423</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -3425,7 +4387,9 @@
       <c r="D113">
         <v>424</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -3445,7 +4409,9 @@
       <c r="D114">
         <v>425</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -3465,7 +4431,9 @@
       <c r="D115">
         <v>426</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -3485,7 +4453,9 @@
       <c r="D116">
         <v>427</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -3505,7 +4475,9 @@
       <c r="D117">
         <v>428</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -3525,7 +4497,9 @@
       <c r="D118">
         <v>429</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -3545,7 +4519,9 @@
       <c r="D119">
         <v>430</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -3565,7 +4541,9 @@
       <c r="D120">
         <v>431</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -3585,7 +4563,9 @@
       <c r="D121">
         <v>432</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -3605,7 +4585,9 @@
       <c r="D122">
         <v>433</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -3625,7 +4607,9 @@
       <c r="D123">
         <v>434</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -3645,7 +4629,9 @@
       <c r="D124">
         <v>435</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -3665,7 +4651,9 @@
       <c r="D125">
         <v>436</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -3685,7 +4673,9 @@
       <c r="D126">
         <v>437</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -3705,7 +4695,9 @@
       <c r="D127">
         <v>438</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -3725,7 +4717,9 @@
       <c r="D128">
         <v>439</v>
       </c>
-      <c r="E128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -3745,7 +4739,9 @@
       <c r="D129">
         <v>440</v>
       </c>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -3765,7 +4761,9 @@
       <c r="D130">
         <v>441</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -3785,7 +4783,9 @@
       <c r="D131">
         <v>442</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -3805,7 +4805,9 @@
       <c r="D132">
         <v>443</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -3825,7 +4827,9 @@
       <c r="D133">
         <v>444</v>
       </c>
-      <c r="E133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -3845,7 +4849,9 @@
       <c r="D134">
         <v>445</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -3865,7 +4871,9 @@
       <c r="D135">
         <v>446</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -3885,7 +4893,9 @@
       <c r="D136">
         <v>447</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -3905,7 +4915,9 @@
       <c r="D137">
         <v>448</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -3925,7 +4937,9 @@
       <c r="D138">
         <v>449</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -3945,7 +4959,9 @@
       <c r="D139">
         <v>450</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -3967,7 +4983,9 @@
       <c r="D140">
         <v>451</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -3987,7 +5005,9 @@
       <c r="D141">
         <v>452</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="F141" s="3"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -4007,7 +5027,9 @@
       <c r="D142">
         <v>453</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="F142" s="3"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -4027,7 +5049,9 @@
       <c r="D143">
         <v>454</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F143" s="3"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -4047,7 +5071,9 @@
       <c r="D144">
         <v>455</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F144" s="3"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -4067,7 +5093,9 @@
       <c r="D145">
         <v>456</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -4087,7 +5115,9 @@
       <c r="D146">
         <v>457</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -4107,7 +5137,9 @@
       <c r="D147">
         <v>458</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -4127,7 +5159,9 @@
       <c r="D148">
         <v>459</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -4147,7 +5181,9 @@
       <c r="D149">
         <v>460</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -4167,7 +5203,9 @@
       <c r="D150">
         <v>461</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -4187,7 +5225,9 @@
       <c r="D151">
         <v>462</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -4207,7 +5247,9 @@
       <c r="D152">
         <v>463</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -4227,7 +5269,9 @@
       <c r="D153">
         <v>464</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -4247,7 +5291,9 @@
       <c r="D154">
         <v>465</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -4267,7 +5313,9 @@
       <c r="D155">
         <v>466</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -4287,7 +5335,9 @@
       <c r="D156">
         <v>467</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -4307,7 +5357,9 @@
       <c r="D157">
         <v>468</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -4327,7 +5379,9 @@
       <c r="D158">
         <v>469</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -4347,7 +5401,9 @@
       <c r="D159">
         <v>470</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -4369,7 +5425,9 @@
       <c r="D160">
         <v>471</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -4389,7 +5447,9 @@
       <c r="D161">
         <v>472</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -4409,7 +5469,9 @@
       <c r="D162">
         <v>473</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -4429,7 +5491,9 @@
       <c r="D163">
         <v>474</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -4449,7 +5513,9 @@
       <c r="D164">
         <v>475</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -4469,7 +5535,9 @@
       <c r="D165">
         <v>476</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -4489,7 +5557,9 @@
       <c r="D166">
         <v>477</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -4511,7 +5581,9 @@
       <c r="D167">
         <v>478</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -4533,7 +5605,9 @@
       <c r="D168">
         <v>479</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -4555,7 +5629,9 @@
       <c r="D169">
         <v>480</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -4575,7 +5651,9 @@
       <c r="D170">
         <v>481</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -4597,7 +5675,9 @@
       <c r="D171">
         <v>482</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -4617,7 +5697,9 @@
       <c r="D172">
         <v>483</v>
       </c>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -4637,7 +5719,9 @@
       <c r="D173">
         <v>484</v>
       </c>
-      <c r="E173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -4657,7 +5741,9 @@
       <c r="D174">
         <v>485</v>
       </c>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -4677,7 +5763,9 @@
       <c r="D175">
         <v>486</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -4697,7 +5785,9 @@
       <c r="D176">
         <v>487</v>
       </c>
-      <c r="E176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -4717,7 +5807,9 @@
       <c r="D177">
         <v>488</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -4737,7 +5829,9 @@
       <c r="D178">
         <v>489</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -4757,7 +5851,9 @@
       <c r="D179">
         <v>490</v>
       </c>
-      <c r="E179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -4777,7 +5873,9 @@
       <c r="D180">
         <v>491</v>
       </c>
-      <c r="E180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -4797,7 +5895,9 @@
       <c r="D181">
         <v>492</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -4817,7 +5917,9 @@
       <c r="D182">
         <v>493</v>
       </c>
-      <c r="E182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -4837,7 +5939,9 @@
       <c r="D183">
         <v>494</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -4857,7 +5961,9 @@
       <c r="D184">
         <v>495</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -4877,7 +5983,9 @@
       <c r="D185">
         <v>496</v>
       </c>
-      <c r="E185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -4897,7 +6005,9 @@
       <c r="D186">
         <v>497</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
@@ -4917,7 +6027,9 @@
       <c r="D187">
         <v>498</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
@@ -4937,7 +6049,9 @@
       <c r="D188">
         <v>499</v>
       </c>
-      <c r="E188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -4957,7 +6071,9 @@
       <c r="D189">
         <v>500</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -4977,7 +6093,9 @@
       <c r="D190">
         <v>501</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -4997,7 +6115,9 @@
       <c r="D191">
         <v>502</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -5019,7 +6139,9 @@
       <c r="D192">
         <v>503</v>
       </c>
-      <c r="E192" s="5"/>
+      <c r="E192" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -5041,7 +6163,9 @@
       <c r="D193">
         <v>504</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -5061,7 +6185,9 @@
       <c r="D194">
         <v>505</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
@@ -5081,7 +6207,9 @@
       <c r="D195">
         <v>506</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
@@ -5101,7 +6229,9 @@
       <c r="D196">
         <v>507</v>
       </c>
-      <c r="E196" s="5"/>
+      <c r="E196" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
@@ -5121,7 +6251,9 @@
       <c r="D197">
         <v>508</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -5141,7 +6273,9 @@
       <c r="D198">
         <v>509</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -5161,7 +6295,9 @@
       <c r="D199">
         <v>510</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
@@ -5181,7 +6317,9 @@
       <c r="D200">
         <v>511</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
@@ -5201,7 +6339,9 @@
       <c r="D201">
         <v>512</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
@@ -5221,7 +6361,9 @@
       <c r="D202">
         <v>513</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
@@ -5241,7 +6383,9 @@
       <c r="D203">
         <v>514</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
@@ -5263,7 +6407,9 @@
       <c r="D204">
         <v>515</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
@@ -5283,7 +6429,9 @@
       <c r="D205">
         <v>516</v>
       </c>
-      <c r="E205" s="5"/>
+      <c r="E205" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
@@ -5302,7 +6450,9 @@
       <c r="D206">
         <v>517</v>
       </c>
-      <c r="E206" s="5"/>
+      <c r="E206" s="5" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
@@ -5314,7 +6464,9 @@
       <c r="D207">
         <v>518</v>
       </c>
-      <c r="E207" s="5"/>
+      <c r="E207" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
@@ -5326,7 +6478,9 @@
       <c r="D208">
         <v>519</v>
       </c>
-      <c r="E208" s="5"/>
+      <c r="E208" s="5" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
@@ -5338,6 +6492,9 @@
       <c r="D209">
         <v>520</v>
       </c>
+      <c r="E209" s="5" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
@@ -5349,6 +6506,9 @@
       <c r="D210">
         <v>521</v>
       </c>
+      <c r="E210" s="5" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -5360,7 +6520,9 @@
       <c r="D211">
         <v>522</v>
       </c>
-      <c r="E211" s="5"/>
+      <c r="E211" s="5" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
@@ -5372,7 +6534,9 @@
       <c r="D212">
         <v>523</v>
       </c>
-      <c r="E212" s="5"/>
+      <c r="E212" s="5" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -5384,7 +6548,9 @@
       <c r="D213">
         <v>524</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="5" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
@@ -5396,7 +6562,9 @@
       <c r="D214">
         <v>525</v>
       </c>
-      <c r="E214" s="5"/>
+      <c r="E214" s="5" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
@@ -5408,7 +6576,9 @@
       <c r="D215">
         <v>526</v>
       </c>
-      <c r="E215" s="5"/>
+      <c r="E215" s="5" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
@@ -5420,7 +6590,9 @@
       <c r="D216">
         <v>527</v>
       </c>
-      <c r="E216" s="5"/>
+      <c r="E216" s="5" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
@@ -5432,6 +6604,9 @@
       <c r="D217">
         <v>528</v>
       </c>
+      <c r="E217" s="5" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
@@ -5443,6 +6618,9 @@
       <c r="D218">
         <v>529</v>
       </c>
+      <c r="E218" s="5" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
@@ -5454,7 +6632,9 @@
       <c r="D219">
         <v>530</v>
       </c>
-      <c r="E219" s="5"/>
+      <c r="E219" s="5" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
@@ -5466,7 +6646,9 @@
       <c r="D220">
         <v>531</v>
       </c>
-      <c r="E220" s="5"/>
+      <c r="E220" s="5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
@@ -5478,6 +6660,9 @@
       <c r="D221">
         <v>532</v>
       </c>
+      <c r="E221" s="5" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
@@ -5489,6 +6674,9 @@
       <c r="D222">
         <v>533</v>
       </c>
+      <c r="E222" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
@@ -5500,6 +6688,9 @@
       <c r="D223">
         <v>534</v>
       </c>
+      <c r="E223" s="5" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
@@ -5511,8 +6702,11 @@
       <c r="D224">
         <v>535</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
         <v>236</v>
       </c>
@@ -5522,8 +6716,11 @@
       <c r="D225">
         <v>536</v>
       </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>237</v>
       </c>
@@ -5533,8 +6730,11 @@
       <c r="D226">
         <v>537</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>238</v>
       </c>
@@ -5544,8 +6744,11 @@
       <c r="D227">
         <v>538</v>
       </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>239</v>
       </c>
@@ -5555,8 +6758,11 @@
       <c r="D228">
         <v>539</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>240</v>
       </c>
@@ -5566,8 +6772,11 @@
       <c r="D229">
         <v>540</v>
       </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
         <v>241</v>
       </c>
@@ -5577,8 +6786,11 @@
       <c r="D230">
         <v>541</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
         <v>242</v>
       </c>
@@ -5588,8 +6800,11 @@
       <c r="D231">
         <v>542</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>243</v>
       </c>
@@ -5599,8 +6814,11 @@
       <c r="D232">
         <v>543</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>244</v>
       </c>
@@ -5610,8 +6828,11 @@
       <c r="D233">
         <v>544</v>
       </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
         <v>245</v>
       </c>
@@ -5621,8 +6842,11 @@
       <c r="D234">
         <v>545</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
         <v>246</v>
       </c>
@@ -5632,8 +6856,11 @@
       <c r="D235">
         <v>546</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>247</v>
       </c>
@@ -5643,8 +6870,11 @@
       <c r="D236">
         <v>547</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>248</v>
       </c>
@@ -5654,8 +6884,11 @@
       <c r="D237">
         <v>548</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>249</v>
       </c>
@@ -5665,8 +6898,11 @@
       <c r="D238">
         <v>549</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
         <v>250</v>
       </c>
@@ -5676,8 +6912,11 @@
       <c r="D239">
         <v>550</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>251</v>
       </c>
@@ -5687,8 +6926,11 @@
       <c r="D240">
         <v>551</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>252</v>
       </c>
@@ -5698,8 +6940,11 @@
       <c r="D241">
         <v>552</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>253</v>
       </c>
@@ -5709,8 +6954,11 @@
       <c r="D242">
         <v>553</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>254</v>
       </c>
@@ -5720,8 +6968,11 @@
       <c r="D243">
         <v>554</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>255</v>
       </c>
@@ -5731,8 +6982,11 @@
       <c r="D244">
         <v>555</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>256</v>
       </c>
@@ -5742,8 +6996,11 @@
       <c r="D245">
         <v>556</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
         <v>257</v>
       </c>
@@ -5753,8 +7010,11 @@
       <c r="D246">
         <v>557</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
         <v>258</v>
       </c>
@@ -5764,8 +7024,11 @@
       <c r="D247">
         <v>558</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>259</v>
       </c>
@@ -5775,8 +7038,11 @@
       <c r="D248">
         <v>559</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="3" t="s">
         <v>260</v>
       </c>
@@ -5786,8 +7052,11 @@
       <c r="D249">
         <v>560</v>
       </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="3" t="s">
         <v>261</v>
       </c>
@@ -5797,8 +7066,11 @@
       <c r="D250">
         <v>561</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="3" t="s">
         <v>262</v>
       </c>
@@ -5808,8 +7080,11 @@
       <c r="D251">
         <v>562</v>
       </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
         <v>263</v>
       </c>
@@ -5819,8 +7094,11 @@
       <c r="D252">
         <v>563</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="3" t="s">
         <v>264</v>
       </c>
@@ -5830,8 +7108,11 @@
       <c r="D253">
         <v>564</v>
       </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>265</v>
       </c>
@@ -5841,8 +7122,11 @@
       <c r="D254">
         <v>565</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
         <v>266</v>
       </c>
@@ -5852,8 +7136,11 @@
       <c r="D255">
         <v>566</v>
       </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
         <v>267</v>
       </c>
@@ -5863,8 +7150,11 @@
       <c r="D256">
         <v>567</v>
       </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>268</v>
       </c>
@@ -5874,8 +7164,11 @@
       <c r="D257">
         <v>568</v>
       </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>269</v>
       </c>
@@ -5886,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>270</v>
       </c>
@@ -5897,7 +7190,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
         <v>271</v>
       </c>
@@ -5907,8 +7200,11 @@
       <c r="D260">
         <v>569</v>
       </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
     </row>
   </sheetData>
